--- a/ЭиЗВ/Actual_KP/calc.xlsx
+++ b/ЭиЗВ/Actual_KP/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\Actual_KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79487DD2-8952-46E0-9F65-3CE8C739811F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7392B67-6E17-4C9F-8E3B-2374D2AD852C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="2325" windowWidth="20910" windowHeight="11835" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
+    <workbookView xWindow="5715" yWindow="2865" windowWidth="20910" windowHeight="11835" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>l</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>diff sqrt b/h</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>.-LN(1-aplha)</t>
+  </si>
+  <si>
+    <t>alpha</t>
   </si>
 </sst>
 </file>
@@ -434,14 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B52B-BBBD-40E2-8937-CDA3C1499B16}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
@@ -571,7 +584,7 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="1">E3/F3</f>
+        <f t="shared" ref="J3:J5" si="1">E3/F3</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="K3">
@@ -732,7 +745,7 @@
         <v>-5.1019106688698912E-3</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M3:M7" si="12">A$6-J6</f>
+        <f t="shared" ref="M6:M7" si="12">A$6-J6</f>
         <v>7.2148231681001818E-5</v>
       </c>
       <c r="N6">
@@ -791,6 +804,61 @@
       <c r="D10">
         <f>(C8/2)*SQRT(POWER(D8/D2,2)+POWER(E8/E2,2)+POWER(F8/F2,2))</f>
         <v>317.21535064778067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21950</v>
+      </c>
+      <c r="B16">
+        <v>39.6</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <f>B16/2</f>
+        <v>19.8</v>
+      </c>
+      <c r="F16">
+        <f>2*B16*C16+2*B16*D16+2*C16*D16</f>
+        <v>4894.5600000000004</v>
+      </c>
+      <c r="G16">
+        <f>A16/(6*H16*F16)</f>
+        <v>0.43966378679875728</v>
+      </c>
+      <c r="H16">
+        <v>1.7</v>
+      </c>
+      <c r="I16">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/ЭиЗВ/Actual_KP/calc.xlsx
+++ b/ЭиЗВ/Actual_KP/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\Actual_KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7392B67-6E17-4C9F-8E3B-2374D2AD852C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A387DEF-317F-4A16-AC06-A01016071FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2865" windowWidth="20910" windowHeight="11835" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>l</t>
   </si>
@@ -90,17 +90,56 @@
     <t>T</t>
   </si>
   <si>
-    <t>.-LN(1-aplha)</t>
-  </si>
-  <si>
-    <t>alpha</t>
+    <t>a_cp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Sbot</t>
+  </si>
+  <si>
+    <t>Слушатели</t>
+  </si>
+  <si>
+    <t>Стул мягкий</t>
+  </si>
+  <si>
+    <t>Ковер</t>
+  </si>
+  <si>
+    <t>Дверь</t>
+  </si>
+  <si>
+    <t>Стена оштукатуренная</t>
+  </si>
+  <si>
+    <t>Деревянный потолок</t>
+  </si>
+  <si>
+    <t>Итого:</t>
+  </si>
+  <si>
+    <t>Частоты, Гц</t>
+  </si>
+  <si>
+    <t>α(A)</t>
+  </si>
+  <si>
+    <t>Требуемое</t>
+  </si>
+  <si>
+    <t>Добавочное</t>
+  </si>
+  <si>
+    <t>Щит бекеши</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +147,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,10 +171,115 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -130,8 +288,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,15 +643,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B52B-BBBD-40E2-8937-CDA3C1499B16}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
@@ -823,10 +1022,10 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
         <v>21</v>
-      </c>
-      <c r="H15" t="s">
-        <v>20</v>
       </c>
       <c r="I15" t="s">
         <v>22</v>
@@ -851,17 +1050,536 @@
         <v>4894.5600000000004</v>
       </c>
       <c r="G16">
-        <f>A16/(6*H16*F16)</f>
+        <v>1.7</v>
+      </c>
+      <c r="H16">
+        <f>1-EXP(-A16/(6*G16*F16))</f>
+        <v>0.35574700896521105</v>
+      </c>
+      <c r="I16">
+        <f>H16*F16</f>
+        <v>1741.2250802007636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f>A16/(6*G16*F16)</f>
         <v>0.43966378679875728</v>
       </c>
-      <c r="H16">
-        <v>1.7</v>
-      </c>
-      <c r="I16">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>B16*C16</f>
+        <v>1108.8</v>
+      </c>
+      <c r="G20">
+        <f>F16-2*F20</f>
+        <v>2676.9600000000005</v>
+      </c>
+      <c r="J20">
+        <f>(1/6)*$A$16/($F$16*LN(1-H16)+4*0.05*$A$16)</f>
+        <v>1.6346153846153846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>125</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="5">
+        <v>250</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9">
+        <v>500</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>500</v>
+      </c>
+      <c r="C28">
+        <v>0.33</v>
+      </c>
+      <c r="D28">
+        <f>$B28*C28</f>
+        <v>165</v>
+      </c>
+      <c r="E28">
+        <v>0.41</v>
+      </c>
+      <c r="F28">
+        <f>$B28*E28</f>
+        <v>205</v>
+      </c>
+      <c r="G28">
+        <v>0.44</v>
+      </c>
+      <c r="H28">
+        <f>$B28*G28</f>
+        <v>220</v>
+      </c>
+      <c r="I28">
+        <v>0.46</v>
+      </c>
+      <c r="J28">
+        <f>$B28*I28</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4">
+        <v>500</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D33" si="13">$B29*C29</f>
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>0.09</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F33" si="14">$B29*E29</f>
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>0.12</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H33" si="15">$B29*G29</f>
+        <v>60</v>
+      </c>
+      <c r="I29">
+        <v>0.13</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J33" si="16">$B29*I29</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1108.8</v>
+      </c>
+      <c r="C30">
+        <v>0.08</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="13"/>
+        <v>88.703999999999994</v>
+      </c>
+      <c r="E30">
+        <v>0.24</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="14"/>
+        <v>266.11199999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="15"/>
+        <v>632.01599999999996</v>
+      </c>
+      <c r="I30">
+        <v>0.69</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="16"/>
+        <v>765.07199999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.11</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0.08</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2676.96</v>
+      </c>
+      <c r="C32">
+        <v>0.04</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="13"/>
+        <v>107.0784</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="14"/>
+        <v>133.84800000000001</v>
+      </c>
+      <c r="G32">
+        <v>0.06</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="15"/>
+        <v>160.61760000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.08</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="16"/>
+        <v>214.1568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1108.8</v>
+      </c>
+      <c r="C33">
+        <v>0.15</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="13"/>
+        <v>166.32</v>
+      </c>
+      <c r="E33">
+        <v>0.11</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="14"/>
+        <v>121.96799999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="15"/>
+        <v>110.88</v>
+      </c>
+      <c r="I33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="16"/>
+        <v>77.616</v>
+      </c>
+      <c r="N33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4894.5600000000004</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D28:D33)</f>
+        <v>553.10239999999999</v>
+      </c>
+      <c r="F34">
+        <f>SUM(F28:F33)</f>
+        <v>773.02799999999991</v>
+      </c>
+      <c r="H34">
+        <f>SUM(H28:H33)</f>
+        <v>1184.5135999999998</v>
+      </c>
+      <c r="J34">
+        <f>SUM(J28:J33)</f>
+        <v>1352.6447999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>1741.23</v>
+      </c>
+      <c r="F35">
+        <v>1741.23</v>
+      </c>
+      <c r="H35">
+        <v>1741.23</v>
+      </c>
+      <c r="J35">
+        <v>1741.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <f>D35-D34</f>
+        <v>1188.1276</v>
+      </c>
+      <c r="F36">
+        <f>F35-F34</f>
+        <v>968.20200000000011</v>
+      </c>
+      <c r="H36">
+        <f>H35-H34</f>
+        <v>556.71640000000025</v>
+      </c>
+      <c r="J36">
+        <f>J35-J34</f>
+        <v>388.58520000000021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1350</v>
+      </c>
+      <c r="C37">
+        <v>0.87</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D38" si="17">$B37*C37</f>
+        <v>1174.5</v>
+      </c>
+      <c r="E37">
+        <v>0.72</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:F38" si="18">$B37*E37</f>
+        <v>972</v>
+      </c>
+      <c r="G37">
         <v>0.4</v>
       </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H38" si="19">$B37*G37</f>
+        <v>540</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:J38" si="20">$B37*I37</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>D36-D37-D38</f>
+        <v>13.627600000000029</v>
+      </c>
+      <c r="F39">
+        <f>F36-F37-F38</f>
+        <v>-3.7979999999998881</v>
+      </c>
+      <c r="H39">
+        <f>H36-H37-H38</f>
+        <v>16.716400000000249</v>
+      </c>
+      <c r="J39">
+        <f>J36-J37-J38</f>
+        <v>-16.414799999999786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="D40">
+        <f>(D35-D39)/$B$34</f>
+        <v>0.35296378019678987</v>
+      </c>
+      <c r="F40">
+        <f>(F35-F39)/$B$34</f>
+        <v>0.35652397764048244</v>
+      </c>
+      <c r="H40">
+        <f>(H35-H39)/$B$34</f>
+        <v>0.35233271223562479</v>
+      </c>
+      <c r="J40">
+        <f>(J35-J39)/$B$34</f>
+        <v>0.35910169657742469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>(1/6)*$A$16/($F$16*LN(1-D40)+4*0.05*$A$16)</f>
+        <v>1.619348781549292</v>
+      </c>
+      <c r="F41">
+        <f>(1/6)*$A$16/($F$16*LN(1-F40)+4*0.05*$A$16)</f>
+        <v>1.6389407050163352</v>
+      </c>
+      <c r="H41">
+        <f>(1/6)*$A$16/($F$16*LN(1-H40)+4*0.05*$A$16)</f>
+        <v>1.6159358252450073</v>
+      </c>
+      <c r="J41">
+        <f>(1/6)*$A$16/($F$16*LN(1-J40)+4*0.05*$A$16)</f>
+        <v>1.6534943191627944</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="D42">
+        <f>1.7-D41</f>
+        <v>8.0651218450707995E-2</v>
+      </c>
+      <c r="F42">
+        <f>1.7-F41</f>
+        <v>6.1059294983664802E-2</v>
+      </c>
+      <c r="H42">
+        <f>1.7-H41</f>
+        <v>8.4064174754992615E-2</v>
+      </c>
+      <c r="J42">
+        <f>1.7-J41</f>
+        <v>4.6505680837205521E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f>D42/1.7*100</f>
+        <v>4.7441893206298822</v>
+      </c>
+      <c r="F43">
+        <f>F42/1.7*100</f>
+        <v>3.5917232343332239</v>
+      </c>
+      <c r="H43">
+        <f>H42/1.7*100</f>
+        <v>4.9449514561760362</v>
+      </c>
+      <c r="J43">
+        <f>J42/1.7*100</f>
+        <v>2.7356282845415012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>D34+D37</f>
+        <v>1727.6024</v>
+      </c>
+      <c r="F46">
+        <f>F34+F37</f>
+        <v>1745.0279999999998</v>
+      </c>
+      <c r="H46">
+        <f>H34+H37</f>
+        <v>1724.5135999999998</v>
+      </c>
+      <c r="J46">
+        <f>J34+J37</f>
+        <v>1757.6447999999998</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="C25:I25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ЭиЗВ/Actual_KP/calc.xlsx
+++ b/ЭиЗВ/Actual_KP/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\Actual_KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A387DEF-317F-4A16-AC06-A01016071FAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B932AA-5EA3-41AC-A1A9-E1006235B815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
+    <workbookView xWindow="36825" yWindow="1815" windowWidth="18855" windowHeight="12945" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,6 +302,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,15 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B52B-BBBD-40E2-8937-CDA3C1499B16}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,33 +1087,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="7">
+      <c r="C26" s="10">
         <v>125</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="5">
+      <c r="D26" s="11"/>
+      <c r="E26" s="8">
         <v>250</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9">
+      <c r="F26" s="9"/>
+      <c r="G26" s="12">
         <v>500</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
         <v>1000</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
@@ -1385,7 +1385,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D35">
@@ -1402,7 +1402,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D36">
@@ -1423,44 +1423,44 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="6">
         <v>1350</v>
       </c>
       <c r="C37">
         <v>0.87</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D38" si="17">$B37*C37</f>
+        <f t="shared" ref="D37" si="17">$B37*C37</f>
         <v>1174.5</v>
       </c>
       <c r="E37">
         <v>0.72</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F38" si="18">$B37*E37</f>
+        <f t="shared" ref="F37" si="18">$B37*E37</f>
         <v>972</v>
       </c>
       <c r="G37">
         <v>0.4</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H38" si="19">$B37*G37</f>
+        <f t="shared" ref="H37" si="19">$B37*G37</f>
         <v>540</v>
       </c>
       <c r="I37">
         <v>0.3</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37:J38" si="20">$B37*I37</f>
+        <f t="shared" ref="J37" si="20">$B37*I37</f>
         <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D39">
@@ -1481,7 +1481,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="7"/>
       <c r="D40">
         <f>(D35-D39)/$B$34</f>
         <v>0.35296378019678987</v>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="7"/>
       <c r="D42">
         <f>1.7-D41</f>
         <v>8.0651218450707995E-2</v>

--- a/ЭиЗВ/Actual_KP/calc.xlsx
+++ b/ЭиЗВ/Actual_KP/calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭиЗВ\Actual_KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B932AA-5EA3-41AC-A1A9-E1006235B815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ECEAF5-CE7E-4AAA-B731-8456F367BED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36825" yWindow="1815" windowWidth="18855" windowHeight="12945" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
+    <workbookView xWindow="32295" yWindow="1050" windowWidth="23220" windowHeight="12945" xr2:uid="{29B30E28-0AA7-482C-93FA-8CFB34721084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>l</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Щит бекеши</t>
+  </si>
+  <si>
+    <t>ttl</t>
+  </si>
+  <si>
+    <t>asr</t>
+  </si>
+  <si>
+    <t>Ts</t>
+  </si>
+  <si>
+    <t>dT</t>
+  </si>
+  <si>
+    <t>ППГЗ</t>
   </si>
 </sst>
 </file>
@@ -288,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -311,6 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5429B52B-BBBD-40E2-8937-CDA3C1499B16}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,33 +1103,33 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10">
+      <c r="C26" s="11">
         <v>125</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8">
+      <c r="D26" s="12"/>
+      <c r="E26" s="9">
         <v>250</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="12">
+      <c r="F26" s="10"/>
+      <c r="G26" s="13">
         <v>500</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
         <v>1000</v>
       </c>
-      <c r="J26" s="12"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
@@ -1218,35 +1234,35 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>1108.8</v>
+        <v>634</v>
       </c>
       <c r="C30">
         <v>0.08</v>
       </c>
       <c r="D30">
         <f t="shared" si="13"/>
-        <v>88.703999999999994</v>
+        <v>50.72</v>
       </c>
       <c r="E30">
         <v>0.24</v>
       </c>
       <c r="F30">
         <f t="shared" si="14"/>
-        <v>266.11199999999997</v>
+        <v>152.16</v>
       </c>
       <c r="G30">
         <v>0.56999999999999995</v>
       </c>
       <c r="H30">
         <f t="shared" si="15"/>
-        <v>632.01599999999996</v>
+        <v>361.38</v>
       </c>
       <c r="I30">
         <v>0.69</v>
       </c>
       <c r="J30">
         <f t="shared" si="16"/>
-        <v>765.07199999999989</v>
+        <v>437.46</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,35 +1342,36 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>1108.8</v>
+        <f>1186.17+301.24</f>
+        <v>1487.41</v>
       </c>
       <c r="C33">
         <v>0.15</v>
       </c>
       <c r="D33">
         <f t="shared" si="13"/>
-        <v>166.32</v>
+        <v>223.11150000000001</v>
       </c>
       <c r="E33">
         <v>0.11</v>
       </c>
       <c r="F33">
         <f t="shared" si="14"/>
-        <v>121.96799999999999</v>
+        <v>163.61510000000001</v>
       </c>
       <c r="G33">
         <v>0.1</v>
       </c>
       <c r="H33">
         <f t="shared" si="15"/>
-        <v>110.88</v>
+        <v>148.74100000000001</v>
       </c>
       <c r="I33">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J33">
         <f t="shared" si="16"/>
-        <v>77.616</v>
+        <v>104.11870000000002</v>
       </c>
       <c r="N33">
         <v>250</v>
@@ -1369,19 +1386,19 @@
       </c>
       <c r="D34">
         <f>SUM(D28:D33)</f>
-        <v>553.10239999999999</v>
+        <v>571.90989999999999</v>
       </c>
       <c r="F34">
         <f>SUM(F28:F33)</f>
-        <v>773.02799999999991</v>
+        <v>700.72309999999993</v>
       </c>
       <c r="H34">
         <f>SUM(H28:H33)</f>
-        <v>1184.5135999999998</v>
+        <v>951.73860000000002</v>
       </c>
       <c r="J34">
         <f>SUM(J28:J33)</f>
-        <v>1352.6447999999998</v>
+        <v>1051.5355</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="37.5" x14ac:dyDescent="0.25">
@@ -1407,19 +1424,19 @@
       </c>
       <c r="D36">
         <f>D35-D34</f>
-        <v>1188.1276</v>
+        <v>1169.3200999999999</v>
       </c>
       <c r="F36">
         <f>F35-F34</f>
-        <v>968.20200000000011</v>
+        <v>1040.5069000000001</v>
       </c>
       <c r="H36">
         <f>H35-H34</f>
-        <v>556.71640000000025</v>
+        <v>789.4914</v>
       </c>
       <c r="J36">
         <f>J35-J34</f>
-        <v>388.58520000000021</v>
+        <v>689.69450000000006</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
@@ -1427,149 +1444,176 @@
         <v>35</v>
       </c>
       <c r="B37" s="6">
-        <v>1350</v>
+        <v>1195</v>
       </c>
       <c r="C37">
         <v>0.87</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="17">$B37*C37</f>
-        <v>1174.5</v>
+        <f t="shared" ref="D37:D38" si="17">$B37*C37</f>
+        <v>1039.6500000000001</v>
       </c>
       <c r="E37">
         <v>0.72</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37" si="18">$B37*E37</f>
-        <v>972</v>
+        <f t="shared" ref="F37:F38" si="18">$B37*E37</f>
+        <v>860.4</v>
       </c>
       <c r="G37">
         <v>0.4</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37" si="19">$B37*G37</f>
-        <v>540</v>
+        <f t="shared" ref="H37:H38" si="19">$B37*G37</f>
+        <v>478</v>
       </c>
       <c r="I37">
         <v>0.3</v>
       </c>
       <c r="J37">
-        <f t="shared" ref="J37" si="20">$B37*I37</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J37:J38" si="20">$B37*I37</f>
+        <v>358.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="6">
+        <v>400</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="17"/>
+        <v>160</v>
+      </c>
+      <c r="E38">
+        <v>0.6</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="18"/>
+        <v>240</v>
+      </c>
+      <c r="G38">
+        <v>0.85</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="19"/>
+        <v>340</v>
+      </c>
+      <c r="I38">
+        <v>0.82</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="20"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="D39">
-        <f>D36-D37-D38</f>
-        <v>13.627600000000029</v>
+        <f>D34+D37+D38</f>
+        <v>1771.5599000000002</v>
       </c>
       <c r="F39">
-        <f>F36-F37-F38</f>
-        <v>-3.7979999999998881</v>
+        <f>F34+F37+F38</f>
+        <v>1801.1230999999998</v>
       </c>
       <c r="H39">
-        <f>H36-H37-H38</f>
-        <v>16.716400000000249</v>
+        <f>H34+H37+H38</f>
+        <v>1769.7386000000001</v>
       </c>
       <c r="J39">
-        <f>J36-J37-J38</f>
-        <v>-16.414799999999786</v>
+        <f>J34+J37+J38</f>
+        <v>1738.0355</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="D40">
-        <f>(D35-D39)/$B$34</f>
-        <v>0.35296378019678987</v>
+        <f>D39/$B$34</f>
+        <v>0.36194466918374685</v>
       </c>
       <c r="F40">
-        <f>(F35-F39)/$B$34</f>
-        <v>0.35652397764048244</v>
+        <f>F39/$B$34</f>
+        <v>0.36798468095191389</v>
       </c>
       <c r="H40">
-        <f>(H35-H39)/$B$34</f>
-        <v>0.35233271223562479</v>
+        <f>H39/$B$34</f>
+        <v>0.36157256219149425</v>
       </c>
       <c r="J40">
-        <f>(J35-J39)/$B$34</f>
-        <v>0.35910169657742469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <f>J39/$B$34</f>
+        <v>0.35509535075675847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D41">
         <f>(1/6)*$A$16/($F$16*LN(1-D40)+4*0.05*$A$16)</f>
-        <v>1.619348781549292</v>
+        <v>1.6699182415525684</v>
       </c>
       <c r="F41">
         <f>(1/6)*$A$16/($F$16*LN(1-F40)+4*0.05*$A$16)</f>
-        <v>1.6389407050163352</v>
+        <v>1.7061752871704579</v>
       </c>
       <c r="H41">
         <f>(1/6)*$A$16/($F$16*LN(1-H40)+4*0.05*$A$16)</f>
-        <v>1.6159358252450073</v>
+        <v>1.6677458488167582</v>
       </c>
       <c r="J41">
         <f>(1/6)*$A$16/($F$16*LN(1-J40)+4*0.05*$A$16)</f>
-        <v>1.6534943191627944</v>
+        <v>1.631009214126363</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="D42">
         <f>1.7-D41</f>
-        <v>8.0651218450707995E-2</v>
+        <v>3.008175844743155E-2</v>
       </c>
       <c r="F42">
         <f>1.7-F41</f>
-        <v>6.1059294983664802E-2</v>
+        <v>-6.1752871704578993E-3</v>
       </c>
       <c r="H42">
         <f>1.7-H41</f>
-        <v>8.4064174754992615E-2</v>
+        <v>3.2254151183241708E-2</v>
       </c>
       <c r="J42">
         <f>1.7-J41</f>
-        <v>4.6505680837205521E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.8990785873636939E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D43">
         <f>D42/1.7*100</f>
-        <v>4.7441893206298822</v>
+        <v>1.7695152027900913</v>
       </c>
       <c r="F43">
         <f>F42/1.7*100</f>
-        <v>3.5917232343332239</v>
+        <v>-0.3632521864975235</v>
       </c>
       <c r="H43">
         <f>H42/1.7*100</f>
-        <v>4.9449514561760362</v>
+        <v>1.8973030107789242</v>
       </c>
       <c r="J43">
         <f>J42/1.7*100</f>
-        <v>2.7356282845415012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <f>D34+D37</f>
-        <v>1727.6024</v>
-      </c>
-      <c r="F46">
-        <f>F34+F37</f>
-        <v>1745.0279999999998</v>
-      </c>
-      <c r="H46">
-        <f>H34+H37</f>
-        <v>1724.5135999999998</v>
-      </c>
-      <c r="J46">
-        <f>J34+J37</f>
-        <v>1757.6447999999998</v>
+        <v>4.0582815219786434</v>
       </c>
     </row>
   </sheetData>
